--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Gautier.Spring.042821.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Gautier.Spring.042821.xlsx_with_dialog_acts.xlsx
@@ -547,12 +547,12 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -965,12 +965,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1271,12 +1271,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2069,12 +2069,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2605,12 +2605,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2871,12 +2871,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4091,12 +4091,12 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4129,12 +4129,12 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4397,12 +4397,12 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4739,12 +4739,12 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4815,12 +4815,12 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4967,12 +4967,12 @@
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5081,12 +5081,12 @@
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5233,12 +5233,12 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5921,12 +5921,12 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6035,12 +6035,12 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6073,12 +6073,12 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6191,12 +6191,12 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6267,12 +6267,12 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6537,12 +6537,12 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7145,12 +7145,12 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7491,12 +7491,12 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7643,12 +7643,12 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7719,12 +7719,12 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8377,12 +8377,12 @@
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8491,12 +8491,12 @@
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8757,12 +8757,12 @@
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8837,12 +8837,12 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8875,12 +8875,12 @@
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8989,12 +8989,12 @@
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9715,12 +9715,12 @@
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9829,12 +9829,12 @@
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10133,12 +10133,12 @@
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10171,12 +10171,12 @@
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10475,12 +10475,12 @@
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11007,12 +11007,12 @@
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11999,12 +11999,12 @@
       <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13029,12 +13029,12 @@
       <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13105,12 +13105,12 @@
       <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13445,12 +13445,12 @@
       <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13981,12 +13981,12 @@
       <c r="H355" t="inlineStr"/>
       <c r="I355" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14019,12 +14019,12 @@
       <c r="H356" t="inlineStr"/>
       <c r="I356" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14551,12 +14551,12 @@
       <c r="H370" t="inlineStr"/>
       <c r="I370" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15711,12 +15711,12 @@
       <c r="H400" t="inlineStr"/>
       <c r="I400" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15825,12 +15825,12 @@
       <c r="H403" t="inlineStr"/>
       <c r="I403" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15863,12 +15863,12 @@
       <c r="H404" t="inlineStr"/>
       <c r="I404" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16361,12 +16361,12 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16399,12 +16399,12 @@
       <c r="H418" t="inlineStr"/>
       <c r="I418" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16555,12 +16555,12 @@
       <c r="H422" t="inlineStr"/>
       <c r="I422" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16631,12 +16631,12 @@
       <c r="H424" t="inlineStr"/>
       <c r="I424" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16669,12 +16669,12 @@
       <c r="H425" t="inlineStr"/>
       <c r="I425" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16711,12 +16711,12 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -17889,12 +17889,12 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18345,12 +18345,12 @@
       <c r="H469" t="inlineStr"/>
       <c r="I469" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18687,12 +18687,12 @@
       <c r="H478" t="inlineStr"/>
       <c r="I478" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18877,12 +18877,12 @@
       <c r="H483" t="inlineStr"/>
       <c r="I483" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19257,12 +19257,12 @@
       <c r="H493" t="inlineStr"/>
       <c r="I493" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19409,12 +19409,12 @@
       <c r="H497" t="inlineStr"/>
       <c r="I497" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19561,12 +19561,12 @@
       <c r="H501" t="inlineStr"/>
       <c r="I501" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19865,12 +19865,12 @@
       <c r="H509" t="inlineStr"/>
       <c r="I509" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19903,12 +19903,12 @@
       <c r="H510" t="inlineStr"/>
       <c r="I510" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -19979,12 +19979,12 @@
       <c r="H512" t="inlineStr"/>
       <c r="I512" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20169,12 +20169,12 @@
       <c r="H517" t="inlineStr"/>
       <c r="I517" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20435,12 +20435,12 @@
       <c r="H524" t="inlineStr"/>
       <c r="I524" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20777,12 +20777,12 @@
       <c r="H533" t="inlineStr"/>
       <c r="I533" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J533" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
